--- a/ozone/multistate/train_ozone_VTZP_MS_1_energies.xlsx
+++ b/ozone/multistate/train_ozone_VTZP_MS_1_energies.xlsx
@@ -490,7 +490,7 @@
         <v>-0.561373207220107</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5599215030670166</v>
+        <v>-0.5630830526351929</v>
       </c>
       <c r="F2" t="n">
         <v>-225.26491507</v>
@@ -499,7 +499,7 @@
         <v>-224.70353832</v>
       </c>
       <c r="H2" t="n">
-        <v>-225.263459823067</v>
+        <v>-225.2666213726352</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
         <v>-0.5630607581699227</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5639773607254028</v>
+        <v>-0.5632233619689941</v>
       </c>
       <c r="F3" t="n">
         <v>-225.22024666</v>
@@ -531,7 +531,7 @@
         <v>-224.6571849</v>
       </c>
       <c r="H3" t="n">
-        <v>-225.2211622607254</v>
+        <v>-225.220408261969</v>
       </c>
     </row>
     <row r="4">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.561007417561654</v>
+        <v>-0.5610083271765618</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.560111939907074</v>
+        <v>-0.5620828866958618</v>
       </c>
       <c r="F4" t="n">
         <v>-225.2767779</v>
@@ -563,7 +563,7 @@
         <v>-224.71576654</v>
       </c>
       <c r="H4" t="n">
-        <v>-225.2758784799071</v>
+        <v>-225.2778494266959</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.5618002755103365</v>
+        <v>-0.5617909092313358</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5612637996673584</v>
+        <v>-0.5615668296813965</v>
       </c>
       <c r="F5" t="n">
         <v>-225.25250993</v>
@@ -595,7 +595,7 @@
         <v>-224.6907202</v>
       </c>
       <c r="H5" t="n">
-        <v>-225.2519839996673</v>
+        <v>-225.2522870296814</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>-0.5615063779422779</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5619850754737854</v>
+        <v>-0.5614933967590332</v>
       </c>
       <c r="F6" t="n">
         <v>-225.26095102</v>
@@ -627,7 +627,7 @@
         <v>-224.69944606</v>
       </c>
       <c r="H6" t="n">
-        <v>-225.2614311354738</v>
+        <v>-225.260939456759</v>
       </c>
     </row>
     <row r="7">
@@ -650,7 +650,7 @@
         <v>-0.5624192989849405</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5599204301834106</v>
+        <v>-0.5630058646202087</v>
       </c>
       <c r="F7" t="n">
         <v>-225.23544571</v>
@@ -659,7 +659,7 @@
         <v>-224.67302646</v>
       </c>
       <c r="H7" t="n">
-        <v>-225.2329468901834</v>
+        <v>-225.2360323246202</v>
       </c>
     </row>
     <row r="8">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.5736900728345569</v>
+        <v>-0.5736912561319978</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5722464323043823</v>
+        <v>-0.570589542388916</v>
       </c>
       <c r="F8" t="n">
         <v>-225.16880439</v>
@@ -691,7 +691,7 @@
         <v>-224.59511361</v>
       </c>
       <c r="H8" t="n">
-        <v>-225.1673600423044</v>
+        <v>-225.1657031523889</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
         <v>-0.5604550710124159</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5611898899078369</v>
+        <v>-0.5599305629730225</v>
       </c>
       <c r="F9" t="n">
         <v>-225.29845079</v>
@@ -723,7 +723,7 @@
         <v>-224.73799431</v>
       </c>
       <c r="H9" t="n">
-        <v>-225.2991841999078</v>
+        <v>-225.297924872973</v>
       </c>
     </row>
     <row r="10">
@@ -746,7 +746,7 @@
         <v>-0.5690704114416385</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5696885585784912</v>
+        <v>-0.5681944489479065</v>
       </c>
       <c r="F10" t="n">
         <v>-225.2048981</v>
@@ -755,7 +755,7 @@
         <v>-224.63582966</v>
       </c>
       <c r="H10" t="n">
-        <v>-225.2055182185785</v>
+        <v>-225.2040241089479</v>
       </c>
     </row>
     <row r="11">
@@ -778,7 +778,7 @@
         <v>-0.5775355144535526</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5778322219848633</v>
+        <v>-0.5819227695465088</v>
       </c>
       <c r="F11" t="n">
         <v>-225.15714931</v>
@@ -787,7 +787,7 @@
         <v>-224.57961155</v>
       </c>
       <c r="H11" t="n">
-        <v>-225.1574437719849</v>
+        <v>-225.1615343195465</v>
       </c>
     </row>
     <row r="12">
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.5605755409378612</v>
+        <v>-0.5605838679277613</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5586717128753662</v>
+        <v>-0.5577090978622437</v>
       </c>
       <c r="F12" t="n">
         <v>-225.29219357</v>
@@ -819,7 +819,7 @@
         <v>-224.73160947</v>
       </c>
       <c r="H12" t="n">
-        <v>-225.2902811828754</v>
+        <v>-225.2893185678622</v>
       </c>
     </row>
     <row r="13">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.5731060694590743</v>
+        <v>-0.5731034073250095</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5742912888526917</v>
+        <v>-0.573893666267395</v>
       </c>
       <c r="F13" t="n">
         <v>-225.17161196</v>
@@ -851,7 +851,7 @@
         <v>-224.59850775</v>
       </c>
       <c r="H13" t="n">
-        <v>-225.1727990388527</v>
+        <v>-225.1724014162674</v>
       </c>
     </row>
     <row r="14">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.5606305593563408</v>
+        <v>-0.5606361824809407</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5601657032966614</v>
+        <v>-0.5588264465332031</v>
       </c>
       <c r="F14" t="n">
         <v>-225.29020784</v>
@@ -883,7 +883,7 @@
         <v>-224.72957273</v>
       </c>
       <c r="H14" t="n">
-        <v>-225.2897384332967</v>
+        <v>-225.2883991765332</v>
       </c>
     </row>
     <row r="15">
@@ -906,7 +906,7 @@
         <v>-0.5604650779071859</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5597960948944092</v>
+        <v>-0.5600292086601257</v>
       </c>
       <c r="F15" t="n">
         <v>-225.29832884</v>
@@ -915,7 +915,7 @@
         <v>-224.73786353</v>
       </c>
       <c r="H15" t="n">
-        <v>-225.2976596248944</v>
+        <v>-225.2978927386601</v>
       </c>
     </row>
     <row r="16">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.5615865415545782</v>
+        <v>-0.561595478125881</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5621223449707031</v>
+        <v>-0.5622689723968506</v>
       </c>
       <c r="F16" t="n">
         <v>-225.25821146</v>
@@ -947,7 +947,7 @@
         <v>-224.69661578</v>
       </c>
       <c r="H16" t="n">
-        <v>-225.2587381249707</v>
+        <v>-225.2588847523969</v>
       </c>
     </row>
     <row r="17">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.5746500926964251</v>
+        <v>-0.5746443121967902</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5708467364311218</v>
+        <v>-0.5723153948783875</v>
       </c>
       <c r="F17" t="n">
         <v>-225.16493294</v>
@@ -979,7 +979,7 @@
         <v>-224.59028469</v>
       </c>
       <c r="H17" t="n">
-        <v>-225.1611314264311</v>
+        <v>-225.1626000848784</v>
       </c>
     </row>
     <row r="18">
@@ -1002,7 +1002,7 @@
         <v>-0.5626895114327796</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5613027215003967</v>
+        <v>-0.5632849335670471</v>
       </c>
       <c r="F18" t="n">
         <v>-225.22880594</v>
@@ -1011,7 +1011,7 @@
         <v>-224.66611746</v>
       </c>
       <c r="H18" t="n">
-        <v>-225.2274201815004</v>
+        <v>-225.2294023935671</v>
       </c>
     </row>
     <row r="19">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.5606682436699721</v>
+        <v>-0.5606721642141721</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5591658353805542</v>
+        <v>-0.5611920356750488</v>
       </c>
       <c r="F19" t="n">
         <v>-225.28874778</v>
@@ -1043,7 +1043,7 @@
         <v>-224.72807417</v>
       </c>
       <c r="H19" t="n">
-        <v>-225.2872400053806</v>
+        <v>-225.2892662056751</v>
       </c>
     </row>
     <row r="20">
@@ -1066,7 +1066,7 @@
         <v>-0.5782622269891121</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5768413543701172</v>
+        <v>-0.58060622215271</v>
       </c>
       <c r="F20" t="n">
         <v>-225.15588183</v>
@@ -1075,7 +1075,7 @@
         <v>-224.57762358</v>
       </c>
       <c r="H20" t="n">
-        <v>-225.1544649343701</v>
+        <v>-225.1582298021527</v>
       </c>
     </row>
     <row r="21">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.574980254634565</v>
+        <v>-0.5749861304644776</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5702320337295532</v>
+        <v>-0.5741485357284546</v>
       </c>
       <c r="F21" t="n">
         <v>-225.16374511</v>
@@ -1107,7 +1107,7 @@
         <v>-224.58875745</v>
       </c>
       <c r="H21" t="n">
-        <v>-225.1589894837296</v>
+        <v>-225.1629059857285</v>
       </c>
     </row>
     <row r="22">
@@ -1130,7 +1130,7 @@
         <v>-0.5604528957187354</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5592367649078369</v>
+        <v>-0.5595600605010986</v>
       </c>
       <c r="F22" t="n">
         <v>-225.29845602</v>
@@ -1139,7 +1139,7 @@
         <v>-224.73800241</v>
       </c>
       <c r="H22" t="n">
-        <v>-225.2972391749078</v>
+        <v>-225.2975624705011</v>
       </c>
     </row>
     <row r="23">
@@ -1162,7 +1162,7 @@
         <v>-0.5686508746271979</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5705920457839966</v>
+        <v>-0.569524347782135</v>
       </c>
       <c r="F23" t="n">
         <v>-225.21015175</v>
@@ -1171,7 +1171,7 @@
         <v>-224.64150037</v>
       </c>
       <c r="H23" t="n">
-        <v>-225.212092415784</v>
+        <v>-225.2110247177821</v>
       </c>
     </row>
     <row r="24">
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.5800899522992123</v>
+        <v>-0.5800822374181552</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.57537841796875</v>
+        <v>-0.5780215859413147</v>
       </c>
       <c r="F24" t="n">
         <v>-225.15381149</v>
@@ -1203,7 +1203,7 @@
         <v>-224.57373</v>
       </c>
       <c r="H24" t="n">
-        <v>-225.1491084179688</v>
+        <v>-225.1517515859413</v>
       </c>
     </row>
     <row r="25">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.5612185194209038</v>
+        <v>-0.5612179277187663</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5616365671157837</v>
+        <v>-0.5625162720680237</v>
       </c>
       <c r="F25" t="n">
         <v>-225.26991678</v>
@@ -1235,7 +1235,7 @@
         <v>-224.70869753</v>
       </c>
       <c r="H25" t="n">
-        <v>-225.2703340971158</v>
+        <v>-225.271213802068</v>
       </c>
     </row>
     <row r="26">
@@ -1258,7 +1258,7 @@
         <v>-0.5604816866029778</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5596749186515808</v>
+        <v>-0.5567053556442261</v>
       </c>
       <c r="F26" t="n">
         <v>-225.29785816</v>
@@ -1267,7 +1267,7 @@
         <v>-224.73737191</v>
       </c>
       <c r="H26" t="n">
-        <v>-225.2970468286516</v>
+        <v>-225.2940772656442</v>
       </c>
     </row>
     <row r="27">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.5612538402146733</v>
+        <v>-0.5612541424078498</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5614497065544128</v>
+        <v>-0.5628714561462402</v>
       </c>
       <c r="F27" t="n">
         <v>-225.26869748</v>
@@ -1299,7 +1299,7 @@
         <v>-224.7074403</v>
       </c>
       <c r="H27" t="n">
-        <v>-225.2688900065544</v>
+        <v>-225.2703117561462</v>
       </c>
     </row>
     <row r="28">
@@ -1322,7 +1322,7 @@
         <v>-0.56968356548406</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5715764760971069</v>
+        <v>-0.5682721138000488</v>
       </c>
       <c r="F28" t="n">
         <v>-225.19788659</v>
@@ -1331,7 +1331,7 @@
         <v>-224.62820748</v>
       </c>
       <c r="H28" t="n">
-        <v>-225.1997839560971</v>
+        <v>-225.1964795938</v>
       </c>
     </row>
     <row r="29">
@@ -1354,7 +1354,7 @@
         <v>-0.5605293410282037</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.5591778755187988</v>
+        <v>-0.5584020614624023</v>
       </c>
       <c r="F29" t="n">
         <v>-225.29666644</v>
@@ -1363,7 +1363,7 @@
         <v>-224.73613684</v>
       </c>
       <c r="H29" t="n">
-        <v>-225.2953147155188</v>
+        <v>-225.2945389014624</v>
       </c>
     </row>
     <row r="30">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.5605575233108677</v>
+        <v>-0.5605570632840398</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.5620328187942505</v>
+        <v>-0.5584859251976013</v>
       </c>
       <c r="F30" t="n">
         <v>-225.29337711</v>
@@ -1395,7 +1395,7 @@
         <v>-224.73282246</v>
       </c>
       <c r="H30" t="n">
-        <v>-225.2948552787942</v>
+        <v>-225.2913083851976</v>
       </c>
     </row>
     <row r="31">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.5605514928191245</v>
+        <v>-0.5605416338772276</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.5613692402839661</v>
+        <v>-0.559481143951416</v>
       </c>
       <c r="F31" t="n">
         <v>-225.29392578</v>
@@ -1427,7 +1427,7 @@
         <v>-224.73338452</v>
       </c>
       <c r="H31" t="n">
-        <v>-225.294753760284</v>
+        <v>-225.2928656639514</v>
       </c>
     </row>
     <row r="32">
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-0.5743086544359559</v>
+        <v>-0.5743165408360464</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.5688060522079468</v>
+        <v>-0.5704295039176941</v>
       </c>
       <c r="F32" t="n">
         <v>-225.16617404</v>
@@ -1459,7 +1459,7 @@
         <v>-224.59185548</v>
       </c>
       <c r="H32" t="n">
-        <v>-225.1606615322079</v>
+        <v>-225.1622849839177</v>
       </c>
     </row>
     <row r="33">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.5616320176560607</v>
+        <v>-0.5616388984780654</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5620920658111572</v>
+        <v>-0.5628541707992554</v>
       </c>
       <c r="F33" t="n">
         <v>-225.25681349</v>
@@ -1491,7 +1491,7 @@
         <v>-224.69517089</v>
       </c>
       <c r="H33" t="n">
-        <v>-225.2572629558112</v>
+        <v>-225.2580250607993</v>
       </c>
     </row>
     <row r="34">
@@ -1514,7 +1514,7 @@
         <v>-0.5605759870745084</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5606443881988525</v>
+        <v>-0.5625132322311401</v>
       </c>
       <c r="F34" t="n">
         <v>-225.29532525</v>
@@ -1523,7 +1523,7 @@
         <v>-224.73475163</v>
       </c>
       <c r="H34" t="n">
-        <v>-225.2953960181989</v>
+        <v>-225.2972648622311</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>-0.5687914010152848</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5702580213546753</v>
+        <v>-0.5682703256607056</v>
       </c>
       <c r="F35" t="n">
         <v>-225.20840328</v>
@@ -1555,7 +1555,7 @@
         <v>-224.63961616</v>
       </c>
       <c r="H35" t="n">
-        <v>-225.2098741813547</v>
+        <v>-225.2078864856607</v>
       </c>
     </row>
     <row r="36">
@@ -1578,7 +1578,7 @@
         <v>-0.5629110582864231</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5647196173667908</v>
+        <v>-0.5649411082267761</v>
       </c>
       <c r="F36" t="n">
         <v>-225.22370092</v>
@@ -1587,7 +1587,7 @@
         <v>-224.6607938</v>
       </c>
       <c r="H36" t="n">
-        <v>-225.2255134173668</v>
+        <v>-225.2257349082268</v>
       </c>
     </row>
     <row r="37">
@@ -1610,7 +1610,7 @@
         <v>-0.5683885870783534</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5702155828475952</v>
+        <v>-0.5696173906326294</v>
       </c>
       <c r="F37" t="n">
         <v>-225.21363622</v>
@@ -1619,7 +1619,7 @@
         <v>-224.64524682</v>
       </c>
       <c r="H37" t="n">
-        <v>-225.2154624028476</v>
+        <v>-225.2148642106326</v>
       </c>
     </row>
     <row r="38">
@@ -1642,7 +1642,7 @@
         <v>-0.5604712999631627</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.5585812330245972</v>
+        <v>-0.5591910481452942</v>
       </c>
       <c r="F38" t="n">
         <v>-225.29821076</v>
@@ -1651,7 +1651,7 @@
         <v>-224.7377394</v>
       </c>
       <c r="H38" t="n">
-        <v>-225.2963206330246</v>
+        <v>-225.2969304481453</v>
       </c>
     </row>
     <row r="39">
@@ -1674,7 +1674,7 @@
         <v>-0.561417424746826</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.5615677833557129</v>
+        <v>-0.5630115270614624</v>
       </c>
       <c r="F39" t="n">
         <v>-225.26361324</v>
@@ -1683,7 +1683,7 @@
         <v>-224.70219488</v>
       </c>
       <c r="H39" t="n">
-        <v>-225.2637626633557</v>
+        <v>-225.2652064070615</v>
       </c>
     </row>
     <row r="40">
@@ -1706,7 +1706,7 @@
         <v>-0.5709448222752113</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.5727120637893677</v>
+        <v>-0.5707207918167114</v>
       </c>
       <c r="F40" t="n">
         <v>-225.18583249</v>
@@ -1715,7 +1715,7 @@
         <v>-224.61488873</v>
       </c>
       <c r="H40" t="n">
-        <v>-225.1876007937894</v>
+        <v>-225.1856095218167</v>
       </c>
     </row>
     <row r="41">
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-0.5607796429393639</v>
+        <v>-0.5607624314753736</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5600470304489136</v>
+        <v>-0.5590397119522095</v>
       </c>
       <c r="F41" t="n">
         <v>-225.28551178</v>
@@ -1747,7 +1747,7 @@
         <v>-224.7247505</v>
       </c>
       <c r="H41" t="n">
-        <v>-225.2847975304489</v>
+        <v>-225.2837902119522</v>
       </c>
     </row>
     <row r="42">
@@ -1770,7 +1770,7 @@
         <v>-0.5626185507638157</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.5638309121131897</v>
+        <v>-0.5655386447906494</v>
       </c>
       <c r="F42" t="n">
         <v>-225.23048445</v>
@@ -1779,7 +1779,7 @@
         <v>-224.66786569</v>
       </c>
       <c r="H42" t="n">
-        <v>-225.2316966021132</v>
+        <v>-225.2334043347907</v>
       </c>
     </row>
     <row r="43">
@@ -1802,7 +1802,7 @@
         <v>-0.5605172947999156</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5596277713775635</v>
+        <v>-0.5579742193222046</v>
       </c>
       <c r="F43" t="n">
         <v>-225.2970268</v>
@@ -1811,7 +1811,7 @@
         <v>-224.73650967</v>
       </c>
       <c r="H43" t="n">
-        <v>-225.2961374413776</v>
+        <v>-225.2944838893222</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>-0.5604679997192124</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.559739351272583</v>
+        <v>-0.5621567368507385</v>
       </c>
       <c r="F44" t="n">
         <v>-225.29723096</v>
@@ -1843,7 +1843,7 @@
         <v>-224.73676437</v>
       </c>
       <c r="H44" t="n">
-        <v>-225.2965037212726</v>
+        <v>-225.2989211068507</v>
       </c>
     </row>
     <row r="45">
@@ -1866,7 +1866,7 @@
         <v>-0.5624874309401278</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.559760570526123</v>
+        <v>-0.561545193195343</v>
       </c>
       <c r="F45" t="n">
         <v>-225.23380518</v>
@@ -1875,7 +1875,7 @@
         <v>-224.67132084</v>
       </c>
       <c r="H45" t="n">
-        <v>-225.2310814105261</v>
+        <v>-225.2328660331953</v>
       </c>
     </row>
     <row r="46">
@@ -1898,7 +1898,7 @@
         <v>-0.5700109548126098</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.5703651905059814</v>
+        <v>-0.5669546127319336</v>
       </c>
       <c r="F46" t="n">
         <v>-225.19439975</v>
@@ -1907,7 +1907,7 @@
         <v>-224.6243879</v>
       </c>
       <c r="H46" t="n">
-        <v>-225.194753090506</v>
+        <v>-225.1913425127319</v>
       </c>
     </row>
     <row r="47">
@@ -1930,7 +1930,7 @@
         <v>-0.5764219721461281</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.5755241513252258</v>
+        <v>-0.576746940612793</v>
       </c>
       <c r="F47" t="n">
         <v>-225.15958396</v>
@@ -1939,7 +1939,7 @@
         <v>-224.58315862</v>
       </c>
       <c r="H47" t="n">
-        <v>-225.1586827713252</v>
+        <v>-225.1599055606128</v>
       </c>
     </row>
     <row r="48">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.5800356522010647</v>
+        <v>-0.580028896147523</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.5777080059051514</v>
+        <v>-0.5794475078582764</v>
       </c>
       <c r="F48" t="n">
         <v>-225.15379864</v>
@@ -1971,7 +1971,7 @@
         <v>-224.57376845</v>
       </c>
       <c r="H48" t="n">
-        <v>-225.1514764559051</v>
+        <v>-225.1532159578583</v>
       </c>
     </row>
     <row r="49">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.5608007607712965</v>
+        <v>-0.5607857253777176</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5592887997627258</v>
+        <v>-0.5581055879592896</v>
       </c>
       <c r="F49" t="n">
         <v>-225.28463884</v>
@@ -2003,7 +2003,7 @@
         <v>-224.7238534</v>
       </c>
       <c r="H49" t="n">
-        <v>-225.2831421997627</v>
+        <v>-225.2819589879593</v>
       </c>
     </row>
     <row r="50">
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.5618509889427733</v>
+        <v>-0.5618411146201703</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5608406662940979</v>
+        <v>-0.5610314607620239</v>
       </c>
       <c r="F50" t="n">
         <v>-225.25103983</v>
@@ -2035,7 +2035,7 @@
         <v>-224.68919886</v>
       </c>
       <c r="H50" t="n">
-        <v>-225.2500395262941</v>
+        <v>-225.250230320762</v>
       </c>
     </row>
     <row r="51">
@@ -2058,7 +2058,7 @@
         <v>-0.5713642675751729</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.5707396268844604</v>
+        <v>-0.5731711983680725</v>
       </c>
       <c r="F51" t="n">
         <v>-225.18250304</v>
@@ -2067,7 +2067,7 @@
         <v>-224.61113939</v>
       </c>
       <c r="H51" t="n">
-        <v>-225.1818790168845</v>
+        <v>-225.1843105883681</v>
       </c>
     </row>
     <row r="52">
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.561112519525363</v>
+        <v>-0.5611092517322197</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.561455249786377</v>
+        <v>-0.5602987408638</v>
       </c>
       <c r="F52" t="n">
         <v>-225.27344641</v>
@@ -2099,7 +2099,7 @@
         <v>-224.71233531</v>
       </c>
       <c r="H52" t="n">
-        <v>-225.2737905597864</v>
+        <v>-225.2726340508638</v>
       </c>
     </row>
     <row r="53">
@@ -2122,7 +2122,7 @@
         <v>-0.5689274712417925</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5685157775878906</v>
+        <v>-0.5680083036422729</v>
       </c>
       <c r="F53" t="n">
         <v>-225.20665155</v>
@@ -2131,7 +2131,7 @@
         <v>-224.63772575</v>
       </c>
       <c r="H53" t="n">
-        <v>-225.2062415275879</v>
+        <v>-225.2057340536423</v>
       </c>
     </row>
     <row r="54">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.5720650932205749</v>
+        <v>-0.5720525147713127</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5744155645370483</v>
+        <v>-0.5740931034088135</v>
       </c>
       <c r="F54" t="n">
         <v>-225.17766563</v>
@@ -2163,7 +2163,7 @@
         <v>-224.6056115</v>
       </c>
       <c r="H54" t="n">
-        <v>-225.1800270645371</v>
+        <v>-225.1797046034088</v>
       </c>
     </row>
     <row r="55">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-0.5792161589590812</v>
+        <v>-0.5792180138243588</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5804980397224426</v>
+        <v>-0.5789300203323364</v>
       </c>
       <c r="F55" t="n">
         <v>-225.15453286</v>
@@ -2195,7 +2195,7 @@
         <v>-224.57531238</v>
       </c>
       <c r="H55" t="n">
-        <v>-225.1558104197225</v>
+        <v>-225.1542424003324</v>
       </c>
     </row>
     <row r="56">
@@ -2218,7 +2218,7 @@
         <v>-0.5715867625071253</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5717365741729736</v>
+        <v>-0.5731633901596069</v>
       </c>
       <c r="F56" t="n">
         <v>-225.18086739</v>
@@ -2227,7 +2227,7 @@
         <v>-224.60928218</v>
       </c>
       <c r="H56" t="n">
-        <v>-225.181018754173</v>
+        <v>-225.1824455701596</v>
       </c>
     </row>
     <row r="57">
@@ -2250,7 +2250,7 @@
         <v>-0.5627575128186129</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5628880858421326</v>
+        <v>-0.5625840425491333</v>
       </c>
       <c r="F57" t="n">
         <v>-225.22711512</v>
@@ -2259,7 +2259,7 @@
         <v>-224.66435553</v>
       </c>
       <c r="H57" t="n">
-        <v>-225.2272436158421</v>
+        <v>-225.2269395725491</v>
       </c>
     </row>
     <row r="58">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.5733934341522386</v>
+        <v>-0.5733926001943391</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5736385583877563</v>
+        <v>-0.5722121000289917</v>
       </c>
       <c r="F58" t="n">
         <v>-225.17018731</v>
@@ -2291,7 +2291,7 @@
         <v>-224.59679513</v>
       </c>
       <c r="H58" t="n">
-        <v>-225.1704336883878</v>
+        <v>-225.169007230029</v>
       </c>
     </row>
     <row r="59">
@@ -2314,7 +2314,7 @@
         <v>-0.563308038496113</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5616998672485352</v>
+        <v>-0.5624587535858154</v>
       </c>
       <c r="F59" t="n">
         <v>-225.21499993</v>
@@ -2323,7 +2323,7 @@
         <v>-224.65169138</v>
       </c>
       <c r="H59" t="n">
-        <v>-225.2133912472485</v>
+        <v>-225.2141501335858</v>
       </c>
     </row>
     <row r="60">
@@ -2346,7 +2346,7 @@
         <v>-0.5779048413354273</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5816543102264404</v>
+        <v>-0.5823265910148621</v>
       </c>
       <c r="F60" t="n">
         <v>-225.15647871</v>
@@ -2355,7 +2355,7 @@
         <v>-224.57857652</v>
       </c>
       <c r="H60" t="n">
-        <v>-225.1602308302265</v>
+        <v>-225.1609031110149</v>
       </c>
     </row>
     <row r="61">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.5789154320861185</v>
+        <v>-0.5789216155286447</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5802281498908997</v>
+        <v>-0.5758768916130066</v>
       </c>
       <c r="F61" t="n">
         <v>-225.15490762</v>
@@ -2387,7 +2387,7 @@
         <v>-224.57598555</v>
       </c>
       <c r="H61" t="n">
-        <v>-225.1562136998909</v>
+        <v>-225.151862441613</v>
       </c>
     </row>
     <row r="62">
@@ -2410,7 +2410,7 @@
         <v>-0.5606086843497846</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5624786615371704</v>
+        <v>-0.5625022649765015</v>
       </c>
       <c r="F62" t="n">
         <v>-225.29420641</v>
@@ -2419,7 +2419,7 @@
         <v>-224.73359744</v>
       </c>
       <c r="H62" t="n">
-        <v>-225.2960761015372</v>
+        <v>-225.2960997049765</v>
       </c>
     </row>
     <row r="63">
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-0.5608476324344495</v>
+        <v>-0.5608371928635572</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.56233149766922</v>
+        <v>-0.5599125623703003</v>
       </c>
       <c r="F63" t="n">
         <v>-225.28281801</v>
@@ -2451,7 +2451,7 @@
         <v>-224.72198151</v>
       </c>
       <c r="H63" t="n">
-        <v>-225.2843130076692</v>
+        <v>-225.2818940723703</v>
       </c>
     </row>
     <row r="64">
@@ -2474,7 +2474,7 @@
         <v>-0.5631409333637355</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5632138252258301</v>
+        <v>-0.5660253763198853</v>
       </c>
       <c r="F64" t="n">
         <v>-225.21850569</v>
@@ -2483,7 +2483,7 @@
         <v>-224.65536365</v>
       </c>
       <c r="H64" t="n">
-        <v>-225.2185774752258</v>
+        <v>-225.2213890263199</v>
       </c>
     </row>
     <row r="65">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-0.5728287843482025</v>
+        <v>-0.572824371794403</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5703635215759277</v>
+        <v>-0.571476936340332</v>
       </c>
       <c r="F65" t="n">
         <v>-225.17307488</v>
@@ -2515,7 +2515,7 @@
         <v>-224.60024838</v>
       </c>
       <c r="H65" t="n">
-        <v>-225.1706119015759</v>
+        <v>-225.1717253163403</v>
       </c>
     </row>
     <row r="66">
@@ -2538,7 +2538,7 @@
         <v>-0.5605881812564296</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.5617817640304565</v>
+        <v>-0.5629366040229797</v>
       </c>
       <c r="F66" t="n">
         <v>-225.29478881</v>
@@ -2547,7 +2547,7 @@
         <v>-224.73419811</v>
       </c>
       <c r="H66" t="n">
-        <v>-225.2959798740305</v>
+        <v>-225.297134714023</v>
       </c>
     </row>
     <row r="67">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-0.562114681616373</v>
+        <v>-0.5621164008843813</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.561875581741333</v>
+        <v>-0.5619684457778931</v>
       </c>
       <c r="F67" t="n">
         <v>-225.2434373</v>
@@ -2579,7 +2579,7 @@
         <v>-224.68132281</v>
       </c>
       <c r="H67" t="n">
-        <v>-225.2431983917413</v>
+        <v>-225.2432912557779</v>
       </c>
     </row>
     <row r="68">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-0.5622865639740799</v>
+        <v>-0.5622948164729811</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5619432926177979</v>
+        <v>-0.5634239912033081</v>
       </c>
       <c r="F68" t="n">
         <v>-225.23868603</v>
@@ -2611,7 +2611,7 @@
         <v>-224.67639273</v>
       </c>
       <c r="H68" t="n">
-        <v>-225.2383360226178</v>
+        <v>-225.2398167212033</v>
       </c>
     </row>
     <row r="69">
@@ -2634,7 +2634,7 @@
         <v>-0.5692152960125743</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.5685052871704102</v>
+        <v>-0.5677998065948486</v>
       </c>
       <c r="F69" t="n">
         <v>-225.20314346</v>
@@ -2643,7 +2643,7 @@
         <v>-224.63392842</v>
       </c>
       <c r="H69" t="n">
-        <v>-225.2024337071704</v>
+        <v>-225.2017282265948</v>
       </c>
     </row>
     <row r="70">
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-0.5619048045413391</v>
+        <v>-0.5618943505704344</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5627536773681641</v>
+        <v>-0.5619653463363647</v>
       </c>
       <c r="F70" t="n">
         <v>-225.24955252</v>
@@ -2675,7 +2675,7 @@
         <v>-224.68765917</v>
       </c>
       <c r="H70" t="n">
-        <v>-225.2504128473682</v>
+        <v>-225.2496245163364</v>
       </c>
     </row>
     <row r="71">
@@ -2698,7 +2698,7 @@
         <v>-0.5615508642955024</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.5631333589553833</v>
+        <v>-0.5614727735519409</v>
       </c>
       <c r="F71" t="n">
         <v>-225.25959092</v>
@@ -2707,7 +2707,7 @@
         <v>-224.69804114</v>
       </c>
       <c r="H71" t="n">
-        <v>-225.2611744989554</v>
+        <v>-225.2595139135519</v>
       </c>
     </row>
     <row r="72">
@@ -2730,7 +2730,7 @@
         <v>-0.5753385453962465</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.5759921073913574</v>
+        <v>-0.5787492990493774</v>
       </c>
       <c r="F72" t="n">
         <v>-225.16261365</v>
@@ -2739,7 +2739,7 @@
         <v>-224.58727735</v>
       </c>
       <c r="H72" t="n">
-        <v>-225.1632694573914</v>
+        <v>-225.1660266490494</v>
       </c>
     </row>
     <row r="73">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.5607367188107598</v>
+        <v>-0.5607382335206598</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5593959093093872</v>
+        <v>-0.5602515935897827</v>
       </c>
       <c r="F73" t="n">
         <v>-225.28635952</v>
@@ -2771,7 +2771,7 @@
         <v>-224.72562146</v>
       </c>
       <c r="H73" t="n">
-        <v>-225.2850173693094</v>
+        <v>-225.2858730535898</v>
       </c>
     </row>
     <row r="74">
@@ -2794,7 +2794,7 @@
         <v>-0.5605449770029558</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.5607180595397949</v>
+        <v>-0.5595196485519409</v>
       </c>
       <c r="F74" t="n">
         <v>-225.29626333</v>
@@ -2803,7 +2803,7 @@
         <v>-224.73572036</v>
       </c>
       <c r="H74" t="n">
-        <v>-225.2964384195398</v>
+        <v>-225.2952400085519</v>
       </c>
     </row>
     <row r="75">
@@ -2826,7 +2826,7 @@
         <v>-0.5614592101875777</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5629585981369019</v>
+        <v>-0.5607780814170837</v>
       </c>
       <c r="F75" t="n">
         <v>-225.26229205</v>
@@ -2835,7 +2835,7 @@
         <v>-224.70083088</v>
       </c>
       <c r="H75" t="n">
-        <v>-225.2637894781369</v>
+        <v>-225.2616089614171</v>
       </c>
     </row>
     <row r="76">
@@ -2858,7 +2858,7 @@
         <v>-0.5605574907690398</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5599660873413086</v>
+        <v>-0.5604112148284912</v>
       </c>
       <c r="F76" t="n">
         <v>-225.29581624</v>
@@ -2867,7 +2867,7 @@
         <v>-224.73525838</v>
       </c>
       <c r="H76" t="n">
-        <v>-225.2952244673413</v>
+        <v>-225.2956695948285</v>
       </c>
     </row>
     <row r="77">
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.562223222269542</v>
+        <v>-0.5622292647765426</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5616914033889771</v>
+        <v>-0.5645633935928345</v>
       </c>
       <c r="F77" t="n">
         <v>-225.24028476</v>
@@ -2899,7 +2899,7 @@
         <v>-224.67805238</v>
       </c>
       <c r="H77" t="n">
-        <v>-225.239743783389</v>
+        <v>-225.2426157735928</v>
       </c>
     </row>
     <row r="78">
@@ -2922,7 +2922,7 @@
         <v>-0.5695246004416612</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5705809593200684</v>
+        <v>-0.5698407888412476</v>
       </c>
       <c r="F78" t="n">
         <v>-225.19963668</v>
@@ -2931,7 +2931,7 @@
         <v>-224.63011676</v>
       </c>
       <c r="H78" t="n">
-        <v>-225.2006977193201</v>
+        <v>-225.1999575488412</v>
       </c>
     </row>
     <row r="79">
@@ -2954,7 +2954,7 @@
         <v>-0.5605028458098491</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5565064549446106</v>
+        <v>-0.5567787885665894</v>
       </c>
       <c r="F79" t="n">
         <v>-225.29734507</v>
@@ -2963,7 +2963,7 @@
         <v>-224.73683928</v>
       </c>
       <c r="H79" t="n">
-        <v>-225.2933457349446</v>
+        <v>-225.2936180685666</v>
       </c>
     </row>
     <row r="80">
@@ -2986,7 +2986,7 @@
         <v>-0.560460498809488</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5634027719497681</v>
+        <v>-0.5607963800430298</v>
       </c>
       <c r="F80" t="n">
         <v>-225.29750263</v>
@@ -2995,7 +2995,7 @@
         <v>-224.73704102</v>
       </c>
       <c r="H80" t="n">
-        <v>-225.3004437919498</v>
+        <v>-225.297837400043</v>
       </c>
     </row>
     <row r="81">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.5617384612399943</v>
+        <v>-0.561741051264992</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5605255961418152</v>
+        <v>-0.5600670576095581</v>
       </c>
       <c r="F81" t="n">
         <v>-225.25396254</v>
@@ -3027,7 +3027,7 @@
         <v>-224.69222297</v>
       </c>
       <c r="H81" t="n">
-        <v>-225.2527485661418</v>
+        <v>-225.2522900276095</v>
       </c>
     </row>
     <row r="82">
@@ -3047,10 +3047,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.5616859907365966</v>
+        <v>-0.5616907528443986</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5615413188934326</v>
+        <v>-0.5618085861206055</v>
       </c>
       <c r="F82" t="n">
         <v>-225.25539716</v>
@@ -3059,7 +3059,7 @@
         <v>-224.69370661</v>
       </c>
       <c r="H82" t="n">
-        <v>-225.2552479288934</v>
+        <v>-225.2555151961206</v>
       </c>
     </row>
     <row r="83">
@@ -3082,7 +3082,7 @@
         <v>-0.5604547922124921</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.5593348741531372</v>
+        <v>-0.5588878989219666</v>
       </c>
       <c r="F83" t="n">
         <v>-225.2977413</v>
@@ -3091,7 +3091,7 @@
         <v>-224.73728383</v>
       </c>
       <c r="H83" t="n">
-        <v>-225.2966187041531</v>
+        <v>-225.296171728922</v>
       </c>
     </row>
     <row r="84">
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.5608219749214169</v>
+        <v>-0.5608092151917555</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5632464289665222</v>
+        <v>-0.5603852272033691</v>
       </c>
       <c r="F84" t="n">
         <v>-225.28374074</v>
@@ -3123,7 +3123,7 @@
         <v>-224.72293021</v>
       </c>
       <c r="H84" t="n">
-        <v>-225.2861766389665</v>
+        <v>-225.2833154372034</v>
       </c>
     </row>
     <row r="85">
@@ -3146,7 +3146,7 @@
         <v>-0.5604508235040235</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.5595322847366333</v>
+        <v>-0.5606160163879395</v>
       </c>
       <c r="F85" t="n">
         <v>-225.29811818</v>
@@ -3155,7 +3155,7 @@
         <v>-224.73766594</v>
       </c>
       <c r="H85" t="n">
-        <v>-225.2971982247366</v>
+        <v>-225.2982819563879</v>
       </c>
     </row>
     <row r="86">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.5604930717238993</v>
+        <v>-0.5604960775377927</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.5639635324478149</v>
+        <v>-0.5600743293762207</v>
       </c>
       <c r="F86" t="n">
         <v>-225.29582457</v>
@@ -3187,7 +3187,7 @@
         <v>-224.73532769</v>
       </c>
       <c r="H86" t="n">
-        <v>-225.2992912224478</v>
+        <v>-225.2954020193762</v>
       </c>
     </row>
     <row r="87">
@@ -3210,7 +3210,7 @@
         <v>-0.569844668116144</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5724144577980042</v>
+        <v>-0.5689795017242432</v>
       </c>
       <c r="F87" t="n">
         <v>-225.19614041</v>
@@ -3219,7 +3219,7 @@
         <v>-224.62629744</v>
       </c>
       <c r="H87" t="n">
-        <v>-225.198711897798</v>
+        <v>-225.1952769417242</v>
       </c>
     </row>
     <row r="88">
@@ -3242,7 +3242,7 @@
         <v>-0.5711489853097031</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.5719099044799805</v>
+        <v>-0.5700936913490295</v>
       </c>
       <c r="F88" t="n">
         <v>-225.18415873</v>
@@ -3251,7 +3251,7 @@
         <v>-224.61300884</v>
       </c>
       <c r="H88" t="n">
-        <v>-225.18491874448</v>
+        <v>-225.183102531349</v>
       </c>
     </row>
     <row r="89">
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.579718788345868</v>
+        <v>-0.5797162441902822</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.5796777606010437</v>
+        <v>-0.5801815986633301</v>
       </c>
       <c r="F89" t="n">
         <v>-225.15401052</v>
@@ -3283,7 +3283,7 @@
         <v>-224.57429448</v>
       </c>
       <c r="H89" t="n">
-        <v>-225.153972240601</v>
+        <v>-225.1544760786633</v>
       </c>
     </row>
     <row r="90">
@@ -3306,7 +3306,7 @@
         <v>-0.5605270470141774</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.5614488124847412</v>
+        <v>-0.5596246719360352</v>
       </c>
       <c r="F90" t="n">
         <v>-225.29444521</v>
@@ -3315,7 +3315,7 @@
         <v>-224.7339164</v>
       </c>
       <c r="H90" t="n">
-        <v>-225.2953652124847</v>
+        <v>-225.293541071936</v>
       </c>
     </row>
     <row r="91">
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.5739877178657504</v>
+        <v>-0.5739998053532331</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.5710851550102234</v>
+        <v>-0.5711132884025574</v>
       </c>
       <c r="F91" t="n">
         <v>-225.16746542</v>
@@ -3347,7 +3347,7 @@
         <v>-224.59346588</v>
       </c>
       <c r="H91" t="n">
-        <v>-225.1645510350102</v>
+        <v>-225.1645791684026</v>
       </c>
     </row>
     <row r="92">
@@ -3370,7 +3370,7 @@
         <v>-0.5707433558580387</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.571032702922821</v>
+        <v>-0.5698283910751343</v>
       </c>
       <c r="F92" t="n">
         <v>-225.18752193</v>
@@ -3379,7 +3379,7 @@
         <v>-224.61677735</v>
       </c>
       <c r="H92" t="n">
-        <v>-225.1878100529228</v>
+        <v>-225.1866057410751</v>
       </c>
     </row>
     <row r="93">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.5607129705011757</v>
+        <v>-0.5607152838402757</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.5577925443649292</v>
+        <v>-0.5589507222175598</v>
       </c>
       <c r="F93" t="n">
         <v>-225.28718163</v>
@@ -3411,7 +3411,7 @@
         <v>-224.72646595</v>
       </c>
       <c r="H93" t="n">
-        <v>-225.2842584943649</v>
+        <v>-225.2854166722176</v>
       </c>
     </row>
     <row r="94">
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-0.5606098919489111</v>
+        <v>-0.560616410240411</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.5606728792190552</v>
+        <v>-0.5603337287902832</v>
       </c>
       <c r="F94" t="n">
         <v>-225.29089739</v>
@@ -3443,7 +3443,7 @@
         <v>-224.7302802</v>
       </c>
       <c r="H94" t="n">
-        <v>-225.2909530792191</v>
+        <v>-225.2906139287903</v>
       </c>
     </row>
     <row r="95">
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-0.5799053478379226</v>
+        <v>-0.5799004205842048</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.5781427621841431</v>
+        <v>-0.578224241733551</v>
       </c>
       <c r="F95" t="n">
         <v>-225.1538651</v>
@@ -3475,7 +3475,7 @@
         <v>-224.57396547</v>
       </c>
       <c r="H95" t="n">
-        <v>-225.1521082321841</v>
+        <v>-225.1521897117335</v>
       </c>
     </row>
     <row r="96">
@@ -3498,7 +3498,7 @@
         <v>-0.5604805348363463</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.5599330067634583</v>
+        <v>-0.5619809031486511</v>
       </c>
       <c r="F96" t="n">
         <v>-225.29659088</v>
@@ -3507,7 +3507,7 @@
         <v>-224.73611145</v>
       </c>
       <c r="H96" t="n">
-        <v>-225.2960444567635</v>
+        <v>-225.2980923531487</v>
       </c>
     </row>
     <row r="97">
@@ -3530,7 +3530,7 @@
         <v>-0.5607180080838016</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.5639075040817261</v>
+        <v>-0.56201171875</v>
       </c>
       <c r="F97" t="n">
         <v>-225.29057291</v>
@@ -3539,7 +3539,7 @@
         <v>-224.72985368</v>
       </c>
       <c r="H97" t="n">
-        <v>-225.2937611840817</v>
+        <v>-225.29186539875</v>
       </c>
     </row>
     <row r="98">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-0.5606513118936</v>
+        <v>-0.5606561418753</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.5594738721847534</v>
+        <v>-0.5599625110626221</v>
       </c>
       <c r="F98" t="n">
         <v>-225.28949128</v>
@@ -3571,7 +3571,7 @@
         <v>-224.72883736</v>
       </c>
       <c r="H98" t="n">
-        <v>-225.2883112321848</v>
+        <v>-225.2887998710626</v>
       </c>
     </row>
     <row r="99">
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.5609810425148175</v>
+        <v>-0.5609795021044455</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.5598387122154236</v>
+        <v>-0.5587702989578247</v>
       </c>
       <c r="F99" t="n">
         <v>-225.27784311</v>
@@ -3603,7 +3603,7 @@
         <v>-224.71686314</v>
       </c>
       <c r="H99" t="n">
-        <v>-225.2767018522154</v>
+        <v>-225.2756334389578</v>
       </c>
     </row>
     <row r="100">
@@ -3626,7 +3626,7 @@
         <v>-0.5685185397374904</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.572627067565918</v>
+        <v>-0.5699071884155273</v>
       </c>
       <c r="F100" t="n">
         <v>-225.21189623</v>
@@ -3635,7 +3635,7 @@
         <v>-224.64337742</v>
       </c>
       <c r="H100" t="n">
-        <v>-225.2160044875659</v>
+        <v>-225.2132846084155</v>
       </c>
     </row>
     <row r="101">
@@ -3655,10 +3655,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-0.5609517047036028</v>
+        <v>-0.5609476983221717</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.5619558095932007</v>
+        <v>-0.5622000694274902</v>
       </c>
       <c r="F101" t="n">
         <v>-225.27888543</v>
@@ -3667,7 +3667,7 @@
         <v>-224.71793598</v>
       </c>
       <c r="H101" t="n">
-        <v>-225.2798917895932</v>
+        <v>-225.2801360494275</v>
       </c>
     </row>
     <row r="102">
@@ -3690,7 +3690,7 @@
         <v>-0.5771730440687888</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.5781037211418152</v>
+        <v>-0.5755852460861206</v>
       </c>
       <c r="F102" t="n">
         <v>-225.15789216</v>
@@ -3699,7 +3699,7 @@
         <v>-224.58072215</v>
       </c>
       <c r="H102" t="n">
-        <v>-225.1588258711418</v>
+        <v>-225.1563073960861</v>
       </c>
     </row>
     <row r="103">
@@ -3722,7 +3722,7 @@
         <v>-0.5703675169648175</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.569857120513916</v>
+        <v>-0.5688048601150513</v>
       </c>
       <c r="F103" t="n">
         <v>-225.19094059</v>
@@ -3731,7 +3731,7 @@
         <v>-224.62057439</v>
       </c>
       <c r="H103" t="n">
-        <v>-225.1904315105139</v>
+        <v>-225.1893792501151</v>
       </c>
     </row>
     <row r="104">
@@ -3754,7 +3754,7 @@
         <v>-0.570184931149153</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.5701550245285034</v>
+        <v>-0.5702261924743652</v>
       </c>
       <c r="F104" t="n">
         <v>-225.19266543</v>
@@ -3763,7 +3763,7 @@
         <v>-224.62247948</v>
       </c>
       <c r="H104" t="n">
-        <v>-225.1926345045285</v>
+        <v>-225.1927056724744</v>
       </c>
     </row>
     <row r="105">
@@ -3786,7 +3786,7 @@
         <v>-0.5632220574035494</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.5630706548690796</v>
+        <v>-0.563166618347168</v>
       </c>
       <c r="F105" t="n">
         <v>-225.21675654</v>
@@ -3795,7 +3795,7 @@
         <v>-224.65353235</v>
       </c>
       <c r="H105" t="n">
-        <v>-225.2166030048691</v>
+        <v>-225.2166989683472</v>
       </c>
     </row>
     <row r="106">
@@ -3818,7 +3818,7 @@
         <v>-0.5629831489881495</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.564831018447876</v>
+        <v>-0.565584123134613</v>
       </c>
       <c r="F106" t="n">
         <v>-225.22197844</v>
@@ -3827,7 +3827,7 @@
         <v>-224.65899492</v>
       </c>
       <c r="H106" t="n">
-        <v>-225.2238259384479</v>
+        <v>-225.2245790431346</v>
       </c>
     </row>
     <row r="107">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.5609271765497191</v>
+        <v>-0.5609208647755783</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.5586770176887512</v>
+        <v>-0.5609744787216187</v>
       </c>
       <c r="F107" t="n">
         <v>-225.27990419</v>
@@ -3859,7 +3859,7 @@
         <v>-224.7189843</v>
       </c>
       <c r="H107" t="n">
-        <v>-225.2776613176887</v>
+        <v>-225.2799587787216</v>
       </c>
     </row>
     <row r="108">
@@ -3882,7 +3882,7 @@
         <v>-0.5607456590247469</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.5639655590057373</v>
+        <v>-0.5632553100585938</v>
       </c>
       <c r="F108" t="n">
         <v>-225.28969538</v>
@@ -3891,7 +3891,7 @@
         <v>-224.72895023</v>
       </c>
       <c r="H108" t="n">
-        <v>-225.2929157890057</v>
+        <v>-225.2922055400586</v>
       </c>
     </row>
     <row r="109">
@@ -3911,10 +3911,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.5794809485178494</v>
+        <v>-0.5794898193504139</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.5773327946662903</v>
+        <v>-0.5799731612205505</v>
       </c>
       <c r="F109" t="n">
         <v>-225.15423373</v>
@@ -3923,7 +3923,7 @@
         <v>-224.57474433</v>
       </c>
       <c r="H109" t="n">
-        <v>-225.1520771246663</v>
+        <v>-225.1547174912205</v>
       </c>
     </row>
     <row r="110">
@@ -3946,7 +3946,7 @@
         <v>-0.5625519814581748</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.5644850730895996</v>
+        <v>-0.5641462802886963</v>
       </c>
       <c r="F110" t="n">
         <v>-225.23215125</v>
@@ -3955,7 +3955,7 @@
         <v>-224.6696004</v>
       </c>
       <c r="H110" t="n">
-        <v>-225.2340854730896</v>
+        <v>-225.2337466802887</v>
       </c>
     </row>
     <row r="111">
@@ -3978,7 +3978,7 @@
         <v>-0.5604723570352348</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.5593242645263672</v>
+        <v>-0.5606111884117126</v>
       </c>
       <c r="F111" t="n">
         <v>-225.29692693</v>
@@ -3987,7 +3987,7 @@
         <v>-224.7364544</v>
       </c>
       <c r="H111" t="n">
-        <v>-225.2957786645264</v>
+        <v>-225.2970655884117</v>
       </c>
     </row>
     <row r="112">
@@ -4007,10 +4007,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-0.5725618352219911</v>
+        <v>-0.5725558735505254</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.5721943378448486</v>
+        <v>-0.5769309997558594</v>
       </c>
       <c r="F112" t="n">
         <v>-225.17457306</v>
@@ -4019,7 +4019,7 @@
         <v>-224.60201355</v>
       </c>
       <c r="H112" t="n">
-        <v>-225.1742078878449</v>
+        <v>-225.1789445497559</v>
       </c>
     </row>
     <row r="113">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.5605492974189477</v>
+        <v>-0.5605675301347688</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.5585538744926453</v>
+        <v>-0.558542013168335</v>
       </c>
       <c r="F113" t="n">
         <v>-225.29279961</v>
@@ -4051,7 +4051,7 @@
         <v>-224.73223065</v>
       </c>
       <c r="H113" t="n">
-        <v>-225.2907845244926</v>
+        <v>-225.2907726631683</v>
       </c>
     </row>
     <row r="114">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-0.5611836739811282</v>
+        <v>-0.5611821033421591</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.5627920031547546</v>
+        <v>-0.5619242191314697</v>
       </c>
       <c r="F114" t="n">
         <v>-225.2711148</v>
@@ -4083,7 +4083,7 @@
         <v>-224.70993254</v>
       </c>
       <c r="H114" t="n">
-        <v>-225.2727245431548</v>
+        <v>-225.2718567591315</v>
       </c>
     </row>
     <row r="115">
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-0.5785925788584897</v>
+        <v>-0.5786019433972763</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.5787980556488037</v>
+        <v>-0.5787314176559448</v>
       </c>
       <c r="F115" t="n">
         <v>-225.15535756</v>
@@ -4115,7 +4115,7 @@
         <v>-224.57675806</v>
       </c>
       <c r="H115" t="n">
-        <v>-225.1555561156488</v>
+        <v>-225.1554894776559</v>
       </c>
     </row>
     <row r="116">
@@ -4138,7 +4138,7 @@
         <v>-0.5606687858492168</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.5644246339797974</v>
+        <v>-0.5632908344268799</v>
       </c>
       <c r="F116" t="n">
         <v>-225.29217418</v>
@@ -4147,7 +4147,7 @@
         <v>-224.7315028</v>
       </c>
       <c r="H116" t="n">
-        <v>-225.2959274339798</v>
+        <v>-225.2947936344269</v>
       </c>
     </row>
     <row r="117">
@@ -4170,7 +4170,7 @@
         <v>-0.5604611180441859</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.5603072643280029</v>
+        <v>-0.5609279870986938</v>
       </c>
       <c r="F117" t="n">
         <v>-225.29840858</v>
@@ -4179,7 +4179,7 @@
         <v>-224.73794822</v>
       </c>
       <c r="H117" t="n">
-        <v>-225.298255484328</v>
+        <v>-225.2988762070987</v>
       </c>
     </row>
     <row r="118">
@@ -4199,10 +4199,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.5611503860679208</v>
+        <v>-0.561147922343547</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.5621936321258545</v>
+        <v>-0.5628160238265991</v>
       </c>
       <c r="F118" t="n">
         <v>-225.27229151</v>
@@ -4211,7 +4211,7 @@
         <v>-224.7111453</v>
       </c>
       <c r="H118" t="n">
-        <v>-225.2733389321259</v>
+        <v>-225.2739613238266</v>
       </c>
     </row>
     <row r="119">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.5620159030719506</v>
+        <v>-0.5620041082924381</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.5620791912078857</v>
+        <v>-0.5620691776275635</v>
       </c>
       <c r="F119" t="n">
         <v>-225.2465275</v>
@@ -4243,7 +4243,7 @@
         <v>-224.684526</v>
       </c>
       <c r="H119" t="n">
-        <v>-225.2466051912079</v>
+        <v>-225.2465951776276</v>
       </c>
     </row>
     <row r="120">
@@ -4266,7 +4266,7 @@
         <v>-0.5606973478103474</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.563136100769043</v>
+        <v>-0.5587118864059448</v>
       </c>
       <c r="F120" t="n">
         <v>-225.29139886</v>
@@ -4275,7 +4275,7 @@
         <v>-224.73070413</v>
       </c>
       <c r="H120" t="n">
-        <v>-225.293840230769</v>
+        <v>-225.2894160164059</v>
       </c>
     </row>
     <row r="121">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-0.5609005223154928</v>
+        <v>-0.5608918211285149</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.5615561604499817</v>
+        <v>-0.560519814491272</v>
       </c>
       <c r="F121" t="n">
         <v>-225.28089956</v>
@@ -4307,7 +4307,7 @@
         <v>-224.72000835</v>
       </c>
       <c r="H121" t="n">
-        <v>-225.28156451045</v>
+        <v>-225.2805281644913</v>
       </c>
     </row>
     <row r="122">
@@ -4330,7 +4330,7 @@
         <v>-0.5604508188336887</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.5580710768699646</v>
+        <v>-0.5609400272369385</v>
       </c>
       <c r="F122" t="n">
         <v>-225.29825541</v>
@@ -4339,7 +4339,7 @@
         <v>-224.7378043</v>
       </c>
       <c r="H122" t="n">
-        <v>-225.29587537687</v>
+        <v>-225.2987443272369</v>
       </c>
     </row>
     <row r="123">
@@ -4362,7 +4362,7 @@
         <v>-0.5604530742197145</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.5581908226013184</v>
+        <v>-0.5613417625427246</v>
       </c>
       <c r="F123" t="n">
         <v>-225.29835778</v>
@@ -4371,7 +4371,7 @@
         <v>-224.73790687</v>
       </c>
       <c r="H123" t="n">
-        <v>-225.2960976926013</v>
+        <v>-225.2992486325427</v>
       </c>
     </row>
     <row r="124">
@@ -4394,7 +4394,7 @@
         <v>-0.5606493535420561</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.562386155128479</v>
+        <v>-0.5605153441429138</v>
       </c>
       <c r="F124" t="n">
         <v>-225.29290004</v>
@@ -4403,7 +4403,7 @@
         <v>-224.73225066</v>
       </c>
       <c r="H124" t="n">
-        <v>-225.2946368151285</v>
+        <v>-225.2927660041429</v>
       </c>
     </row>
     <row r="125">
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.5619599163652155</v>
+        <v>-0.5619488097981822</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.5606347918510437</v>
+        <v>-0.5619756579399109</v>
       </c>
       <c r="F125" t="n">
         <v>-225.2480483</v>
@@ -4435,7 +4435,7 @@
         <v>-224.68610146</v>
       </c>
       <c r="H125" t="n">
-        <v>-225.246736251851</v>
+        <v>-225.2480771179399</v>
       </c>
     </row>
     <row r="126">
@@ -4458,7 +4458,7 @@
         <v>-0.5705517783762061</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.5715657472610474</v>
+        <v>-0.5694208741188049</v>
       </c>
       <c r="F126" t="n">
         <v>-225.18922522</v>
@@ -4467,7 +4467,7 @@
         <v>-224.61867311</v>
       </c>
       <c r="H126" t="n">
-        <v>-225.1902388572611</v>
+        <v>-225.1880939841188</v>
       </c>
     </row>
     <row r="127">
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.5620605976754192</v>
+        <v>-0.5620601965621312</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.5612486600875854</v>
+        <v>-0.5622257590293884</v>
       </c>
       <c r="F127" t="n">
         <v>-225.24499009</v>
@@ -4499,7 +4499,7 @@
         <v>-224.68293269</v>
       </c>
       <c r="H127" t="n">
-        <v>-225.2441813500876</v>
+        <v>-225.2451584490294</v>
       </c>
     </row>
     <row r="128">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.5608676296325684</v>
+        <v>-0.5608604336038456</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.5604665279388428</v>
+        <v>-0.5591365098953247</v>
       </c>
       <c r="F128" t="n">
         <v>-225.28187079</v>
@@ -4531,7 +4531,7 @@
         <v>-224.7210074</v>
       </c>
       <c r="H128" t="n">
-        <v>-225.2814739279388</v>
+        <v>-225.2801439098953</v>
       </c>
     </row>
     <row r="129">
@@ -4554,7 +4554,7 @@
         <v>-0.5628300392479781</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.5626543760299683</v>
+        <v>-0.5639685392379761</v>
       </c>
       <c r="F129" t="n">
         <v>-225.22541339</v>
@@ -4563,7 +4563,7 @@
         <v>-224.66258095</v>
       </c>
       <c r="H129" t="n">
-        <v>-225.22523532603</v>
+        <v>-225.226549489238</v>
       </c>
     </row>
     <row r="130">
@@ -4586,7 +4586,7 @@
         <v>-0.5756922024588516</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.5761759281158447</v>
+        <v>-0.5787578821182251</v>
       </c>
       <c r="F130" t="n">
         <v>-225.16154139</v>
@@ -4595,7 +4595,7 @@
         <v>-224.58584826</v>
       </c>
       <c r="H130" t="n">
-        <v>-225.1620241881159</v>
+        <v>-225.1646061421182</v>
       </c>
     </row>
     <row r="131">
@@ -4618,7 +4618,7 @@
         <v>-0.5693676746070553</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.5719815492630005</v>
+        <v>-0.5690737962722778</v>
       </c>
       <c r="F131" t="n">
         <v>-225.20138958</v>
@@ -4627,7 +4627,7 @@
         <v>-224.63202431</v>
       </c>
       <c r="H131" t="n">
-        <v>-225.204005859263</v>
+        <v>-225.2010981062723</v>
       </c>
     </row>
     <row r="132">
@@ -4647,10 +4647,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-0.5723125882162008</v>
+        <v>-0.572305145531711</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.5718749165534973</v>
+        <v>-0.5739868879318237</v>
       </c>
       <c r="F132" t="n">
         <v>-225.17610428</v>
@@ -4659,7 +4659,7 @@
         <v>-224.60380224</v>
       </c>
       <c r="H132" t="n">
-        <v>-225.1756771565535</v>
+        <v>-225.1777891279318</v>
       </c>
     </row>
     <row r="133">
@@ -4682,7 +4682,7 @@
         <v>-0.5606285933704219</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.5594598054885864</v>
+        <v>-0.5580857992172241</v>
       </c>
       <c r="F133" t="n">
         <v>-225.29357719</v>
@@ -4691,7 +4691,7 @@
         <v>-224.73294872</v>
       </c>
       <c r="H133" t="n">
-        <v>-225.2924085254886</v>
+        <v>-225.2910345192172</v>
       </c>
     </row>
     <row r="134">
@@ -4711,10 +4711,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.5604792003082539</v>
+        <v>-0.5604872948099939</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.5643861293792725</v>
+        <v>-0.5634288787841797</v>
       </c>
       <c r="F134" t="n">
         <v>-225.2962232</v>
@@ -4723,7 +4723,7 @@
         <v>-224.73573594</v>
       </c>
       <c r="H134" t="n">
-        <v>-225.3001220693793</v>
+        <v>-225.2991648187842</v>
       </c>
     </row>
     <row r="135">
@@ -4746,7 +4746,7 @@
         <v>-0.5760576611551641</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.5768393278121948</v>
+        <v>-0.5748531818389893</v>
       </c>
       <c r="F135" t="n">
         <v>-225.16053064</v>
@@ -4755,7 +4755,7 @@
         <v>-224.58447401</v>
       </c>
       <c r="H135" t="n">
-        <v>-225.1613133378122</v>
+        <v>-225.159327191839</v>
       </c>
     </row>
     <row r="136">
@@ -4778,7 +4778,7 @@
         <v>-0.5613371116456627</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.5652289986610413</v>
+        <v>-0.5627418756484985</v>
       </c>
       <c r="F136" t="n">
         <v>-225.26619638</v>
@@ -4787,7 +4787,7 @@
         <v>-224.70486045</v>
       </c>
       <c r="H136" t="n">
-        <v>-225.2700894486611</v>
+        <v>-225.2676023256485</v>
       </c>
     </row>
     <row r="137">
@@ -4807,10 +4807,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-0.5610389449819088</v>
+        <v>-0.5610423406037672</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.5619834661483765</v>
+        <v>-0.5629289150238037</v>
       </c>
       <c r="F137" t="n">
         <v>-225.27568979</v>
@@ -4819,7 +4819,7 @@
         <v>-224.71464609</v>
       </c>
       <c r="H137" t="n">
-        <v>-225.2766295561484</v>
+        <v>-225.2775750050238</v>
       </c>
     </row>
     <row r="138">
@@ -4842,7 +4842,7 @@
         <v>-0.560478025514809</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.5588300228118896</v>
+        <v>-0.5580941438674927</v>
       </c>
       <c r="F138" t="n">
         <v>-225.29805421</v>
@@ -4851,7 +4851,7 @@
         <v>-224.73757607</v>
       </c>
       <c r="H138" t="n">
-        <v>-225.2964060928119</v>
+        <v>-225.2956702138675</v>
       </c>
     </row>
     <row r="139">
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.580038667421281</v>
+        <v>-0.5800313183057491</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.5763207077980042</v>
+        <v>-0.5765070915222168</v>
       </c>
       <c r="F139" t="n">
         <v>-225.15390766</v>
@@ -4883,7 +4883,7 @@
         <v>-224.5738742</v>
       </c>
       <c r="H139" t="n">
-        <v>-225.150194907798</v>
+        <v>-225.1503812915222</v>
       </c>
     </row>
     <row r="140">
@@ -4906,7 +4906,7 @@
         <v>-0.5623563274039693</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.5635490417480469</v>
+        <v>-0.5632250308990479</v>
       </c>
       <c r="F140" t="n">
         <v>-225.23707295</v>
@@ -4915,7 +4915,7 @@
         <v>-224.67471739</v>
       </c>
       <c r="H140" t="n">
-        <v>-225.2382664317481</v>
+        <v>-225.2379424208991</v>
       </c>
     </row>
     <row r="141">
@@ -4935,10 +4935,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-0.5610819361735051</v>
+        <v>-0.561077798310195</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.5625484585762024</v>
+        <v>-0.5628688335418701</v>
       </c>
       <c r="F141" t="n">
         <v>-225.27457912</v>
@@ -4947,7 +4947,7 @@
         <v>-224.71350218</v>
       </c>
       <c r="H141" t="n">
-        <v>-225.2760506385762</v>
+        <v>-225.2763710135419</v>
       </c>
     </row>
     <row r="142">
@@ -4970,7 +4970,7 @@
         <v>-0.5767973745495261</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5767800807952881</v>
+        <v>-0.5784741044044495</v>
       </c>
       <c r="F142" t="n">
         <v>-225.15870378</v>
@@ -4979,7 +4979,7 @@
         <v>-224.58190647</v>
       </c>
       <c r="H142" t="n">
-        <v>-225.1586865507953</v>
+        <v>-225.1603805744045</v>
       </c>
     </row>
     <row r="143">
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.5605931300637323</v>
+        <v>-0.5606005481249323</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.5601723194122314</v>
+        <v>-0.5601799488067627</v>
       </c>
       <c r="F143" t="n">
         <v>-225.29155939</v>
@@ -5011,7 +5011,7 @@
         <v>-224.7309592</v>
       </c>
       <c r="H143" t="n">
-        <v>-225.2911315194122</v>
+        <v>-225.2911391488068</v>
       </c>
     </row>
     <row r="144">
@@ -5034,7 +5034,7 @@
         <v>-0.5604541334277793</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.5589380264282227</v>
+        <v>-0.5595294833183289</v>
       </c>
       <c r="F144" t="n">
         <v>-225.29842484</v>
@@ -5043,7 +5043,7 @@
         <v>-224.73797306</v>
       </c>
       <c r="H144" t="n">
-        <v>-225.2969110864282</v>
+        <v>-225.2975025433183</v>
       </c>
     </row>
     <row r="145">
@@ -5063,10 +5063,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.5606920760841606</v>
+        <v>-0.5606951921194305</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.5600636005401611</v>
+        <v>-0.5605282783508301</v>
       </c>
       <c r="F145" t="n">
         <v>-225.28797781</v>
@@ -5075,7 +5075,7 @@
         <v>-224.72728363</v>
       </c>
       <c r="H145" t="n">
-        <v>-225.2873472305401</v>
+        <v>-225.2878119083508</v>
       </c>
     </row>
     <row r="146">
@@ -5098,7 +5098,7 @@
         <v>-0.5718156491569193</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.5732008218765259</v>
+        <v>-0.5738391876220703</v>
       </c>
       <c r="F146" t="n">
         <v>-225.17925411</v>
@@ -5107,7 +5107,7 @@
         <v>-224.60743895</v>
       </c>
       <c r="H146" t="n">
-        <v>-225.1806397718765</v>
+        <v>-225.1812781376221</v>
       </c>
     </row>
     <row r="147">
@@ -5130,7 +5130,7 @@
         <v>-0.5604970303069895</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.5581483244895935</v>
+        <v>-0.5567728281021118</v>
       </c>
       <c r="F147" t="n">
         <v>-225.29762206</v>
@@ -5139,7 +5139,7 @@
         <v>-224.73712666</v>
       </c>
       <c r="H147" t="n">
-        <v>-225.2952749844896</v>
+        <v>-225.2938994881021</v>
       </c>
     </row>
     <row r="148">
@@ -5159,10 +5159,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.5605083773556943</v>
+        <v>-0.5605067203529972</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.5599290132522583</v>
+        <v>-0.5606464147567749</v>
       </c>
       <c r="F148" t="n">
         <v>-225.29539504</v>
@@ -5171,7 +5171,7 @@
         <v>-224.73488843</v>
       </c>
       <c r="H148" t="n">
-        <v>-225.2948174432523</v>
+        <v>-225.2955348447568</v>
       </c>
     </row>
     <row r="149">
@@ -5194,7 +5194,7 @@
         <v>-0.5607756536712695</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.5635201334953308</v>
+        <v>-0.5638508796691895</v>
       </c>
       <c r="F149" t="n">
         <v>-225.28876574</v>
@@ -5203,7 +5203,7 @@
         <v>-224.72799183</v>
       </c>
       <c r="H149" t="n">
-        <v>-225.2915119634953</v>
+        <v>-225.2918427096692</v>
       </c>
     </row>
     <row r="150">
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.5605259646125261</v>
+        <v>-0.5605195160510761</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.5609842538833618</v>
+        <v>-0.5601283311843872</v>
       </c>
       <c r="F150" t="n">
         <v>-225.29493512</v>
@@ -5235,7 +5235,7 @@
         <v>-224.73441787</v>
       </c>
       <c r="H150" t="n">
-        <v>-225.2954021238833</v>
+        <v>-225.2945462011844</v>
       </c>
     </row>
     <row r="151">
@@ -5255,10 +5255,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.562166263086447</v>
+        <v>-0.5621700467354463</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.5619053244590759</v>
+        <v>-0.562778115272522</v>
       </c>
       <c r="F151" t="n">
         <v>-225.24186851</v>
@@ -5267,7 +5267,7 @@
         <v>-224.67969574</v>
       </c>
       <c r="H151" t="n">
-        <v>-225.2416010644591</v>
+        <v>-225.2424738552725</v>
       </c>
     </row>
     <row r="152">
@@ -5287,10 +5287,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.5613064622333599</v>
+        <v>-0.5612968333284696</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.5625472068786621</v>
+        <v>-0.5628111362457275</v>
       </c>
       <c r="F152" t="n">
         <v>-225.26745727</v>
@@ -5299,7 +5299,7 @@
         <v>-224.7061612</v>
       </c>
       <c r="H152" t="n">
-        <v>-225.2687084068787</v>
+        <v>-225.2689723362457</v>
       </c>
     </row>
     <row r="153">
@@ -5322,7 +5322,7 @@
         <v>-0.5604549796581783</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.5611637830734253</v>
+        <v>-0.562660813331604</v>
       </c>
       <c r="F153" t="n">
         <v>-225.29794664</v>
@@ -5331,7 +5331,7 @@
         <v>-224.73749228</v>
       </c>
       <c r="H153" t="n">
-        <v>-225.2986560630734</v>
+        <v>-225.3001530933316</v>
       </c>
     </row>
   </sheetData>
